--- a/INTLINE/data/134/DEUSTATIS/National accounts - saving of households years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - saving of households years.xlsx
@@ -186,7 +186,7 @@
     <t>Including non-profit institutions serving households.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:36:50</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:42:24</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1352,7 @@
         <v>1852.105</v>
       </c>
       <c r="AG5" t="n" s="11">
-        <v>1920.413</v>
+        <v>1921.378</v>
       </c>
     </row>
     <row r="6">
@@ -1453,7 +1453,7 @@
         <v>338.048</v>
       </c>
       <c r="AG6" t="n" s="11">
-        <v>349.239</v>
+        <v>349.35</v>
       </c>
     </row>
     <row r="7">
@@ -1554,7 +1554,7 @@
         <v>1514.057</v>
       </c>
       <c r="AG7" t="n" s="11">
-        <v>1571.174</v>
+        <v>1572.028</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1655,7 @@
         <v>492.719</v>
       </c>
       <c r="AG8" t="n" s="11">
-        <v>506.963</v>
+        <v>506.735</v>
       </c>
     </row>
     <row r="9">
@@ -1756,7 +1756,7 @@
         <v>1021.338</v>
       </c>
       <c r="AG9" t="n" s="11">
-        <v>1064.211</v>
+        <v>1065.293</v>
       </c>
     </row>
     <row r="10">
@@ -1857,7 +1857,7 @@
         <v>659.076</v>
       </c>
       <c r="AG10" t="n" s="11">
-        <v>673.978</v>
+        <v>672.136</v>
       </c>
     </row>
     <row r="11">
@@ -1958,7 +1958,7 @@
         <v>140.29</v>
       </c>
       <c r="AG11" t="n" s="11">
-        <v>142.457</v>
+        <v>142.978</v>
       </c>
     </row>
     <row r="12">
@@ -2059,7 +2059,7 @@
         <v>1540.124</v>
       </c>
       <c r="AG12" t="n" s="11">
-        <v>1595.732</v>
+        <v>1594.451</v>
       </c>
     </row>
     <row r="13">
@@ -2160,7 +2160,7 @@
         <v>527.167</v>
       </c>
       <c r="AG13" t="n" s="11">
-        <v>528.751</v>
+        <v>533.806</v>
       </c>
     </row>
     <row r="14">
@@ -2261,7 +2261,7 @@
         <v>-92.071</v>
       </c>
       <c r="AG14" t="n" s="11">
-        <v>-111.219</v>
+        <v>-110.597</v>
       </c>
     </row>
     <row r="15">
@@ -2362,7 +2362,7 @@
         <v>1975.22</v>
       </c>
       <c r="AG15" t="n" s="11">
-        <v>2013.264</v>
+        <v>2017.66</v>
       </c>
     </row>
     <row r="16">
@@ -2463,7 +2463,7 @@
         <v>2447.377</v>
       </c>
       <c r="AG16" t="n" s="11">
-        <v>2529.548</v>
+        <v>2532.4</v>
       </c>
     </row>
     <row r="17">
@@ -2564,7 +2564,7 @@
         <v>59.853</v>
       </c>
       <c r="AG17" t="n" s="11">
-        <v>60.781</v>
+        <v>60.764</v>
       </c>
     </row>
     <row r="18">
@@ -2665,7 +2665,7 @@
         <v>327.095</v>
       </c>
       <c r="AG18" t="n" s="11">
-        <v>311.059</v>
+        <v>311.784</v>
       </c>
     </row>
     <row r="19">
@@ -2766,7 +2766,7 @@
         <v>2035.073</v>
       </c>
       <c r="AG19" t="n" s="11">
-        <v>2074.045</v>
+        <v>2078.424</v>
       </c>
     </row>
     <row r="20">
@@ -2898,7 +2898,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:36:54&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:42:28&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - saving of households years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - saving of households years.xlsx
@@ -186,7 +186,7 @@
     <t>Including non-profit institutions serving households.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:42:24</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:33:49</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2898,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:42:28&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:33:53&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>